--- a/Project Output/Documentation/FlexV1.xlsx
+++ b/Project Output/Documentation/FlexV1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominikg\Dropbox\Wuerfel\FlexV1\FlexV1\Project Output\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9112AD2-BAD9-4DB4-8F70-0348F82D309B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA18B5-BA3B-404B-8DF4-9937D02DAF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="16200" windowHeight="28155" xr2:uid="{4A04F739-EC10-4999-9666-E1104A34050B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3A3A7FE2-5CE4-4660-980F-CC19B31A6385}"/>
   </bookViews>
   <sheets>
     <sheet name="FlexV1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="189">
   <si>
     <t>Designator</t>
   </si>
@@ -270,7 +270,7 @@
     <t>IC1, IC2, IC3</t>
   </si>
   <si>
-    <t/>
+    <t>IS31FL3731C</t>
   </si>
   <si>
     <t>LED Lighting Drivers Audio Modulated 144 Dot LED Driver</t>
@@ -279,13 +279,7 @@
     <t>IS31FL3731</t>
   </si>
   <si>
-    <t>706-1480-1-ND</t>
-  </si>
-  <si>
-    <t>ISSI</t>
-  </si>
-  <si>
-    <t>IS31FL3731C-QFLS2-TR</t>
+    <t>706-1219-1-ND</t>
   </si>
   <si>
     <t>IC4</t>
@@ -604,6 +598,9 @@
   </si>
   <si>
     <t>Raltron Electronics</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -985,13 +982,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004E8197-7AE1-4B7D-AB53-5686023F06B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3A53D8-0BEE-4E5F-B3ED-C288D6E649E5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -999,7 +998,7 @@
     <col min="6" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1027,8 +1026,14 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1056,8 +1061,12 @@
       <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>E2*$K$1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1085,8 +1094,12 @@
       <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f t="shared" ref="J3:J33" si="0">E3*$K$1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1114,8 +1127,12 @@
       <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1143,8 +1160,12 @@
       <c r="I5" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -1172,8 +1193,12 @@
       <c r="I6" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -1201,8 +1226,12 @@
       <c r="I7" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
@@ -1230,8 +1259,12 @@
       <c r="I8" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1259,8 +1292,12 @@
       <c r="I9" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
@@ -1288,8 +1325,12 @@
       <c r="I10" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -1317,8 +1358,12 @@
       <c r="I11" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
@@ -1346,8 +1391,12 @@
       <c r="I12" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -1369,192 +1418,216 @@
       <c r="G13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="H15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="I19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>54</v>
@@ -1566,24 +1639,28 @@
         <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>54</v>
@@ -1595,53 +1672,61 @@
         <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>61</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>36</v>
@@ -1653,78 +1738,90 @@
         <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="I25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>54</v>
@@ -1736,24 +1833,28 @@
         <v>13</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>12</v>
@@ -1765,24 +1866,28 @@
         <v>13</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>54</v>
@@ -1794,24 +1899,28 @@
         <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>54</v>
@@ -1823,24 +1932,28 @@
         <v>13</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>54</v>
@@ -1852,20 +1965,24 @@
         <v>13</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>54</v>
@@ -1877,27 +1994,31 @@
         <v>13</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -1906,39 +2027,47 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="I33" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>